--- a/biology/Histoire de la zoologie et de la botanique/René-Édouard_Claparède/René-Édouard_Claparède.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René-Édouard_Claparède/René-Édouard_Claparède.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-%C3%89douard_Clapar%C3%A8de</t>
+          <t>René-Édouard_Claparède</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René-Édouard Claparède, parfois appelé Édouard-René Claparède, né le 24 avril 1832 à Chancy et mort le 31 mai 1871 à Sienne, est un médecin et zoologiste suisse ayant eu une carrière universitaire à Genève. Il fut professeur d'anatomie comparée dès 1862 et s'illustra notamment par des travaux ayant trait à divers domaines des sciences naturelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-%C3%89douard_Clapar%C3%A8de</t>
+          <t>René-Édouard_Claparède</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Appartenant à une famille de huguenots du Languedoc émigrée à Genève en 1724 en raison des persécutions, il est le fils du pasteur Jean-Louis Claparède et de son épouse Amélie Susanne Perdriau et le frère de l'historien du protestantisme Théodore Claparède (1828-1888). Il fait ses études à l'université de Genève et à celle de Berlin où il suit les cours de zoologie de Johannes Peter Müller. Il obtient son doctorat en médecine en 1857.
 Par la suite il succède à François Jules Pictet à l'Académie de Genève : il est titulaire de la chaire de zoologie et d'anatomie comparée à partir de 1862. En 1861, il avait, dans la Revue Internationale Germanique, été l'un des premiers à démontrer l'importance des théories de Charles Darwin. La même année, il s'était vu décerner le grand prix de physique de l'Académie des sciences de Paris.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-%C3%89douard_Clapar%C3%A8de</t>
+          <t>René-Édouard_Claparède</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beitrag zur Anatomie des cyclostoma elegans, 1858
 Études sur les infusoires et les rhizopodes, par Édouard Claparède et Johannes Lachmann, Genève : s.n. , 1858
